--- a/Saran/target/classes/testdatalogin.xlsx
+++ b/Saran/target/classes/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3132E475-0E48-4955-A4BF-D0BAFC03A67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69500C09-A955-4EB9-8F58-0B5D4A8618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="163">
   <si>
     <t>Username</t>
   </si>
@@ -541,13 +541,10 @@
     <t>tester100</t>
   </si>
   <si>
-    <t>neethu111</t>
-  </si>
-  <si>
-    <t>neethu422</t>
-  </si>
-  <si>
     <t>test256</t>
+  </si>
+  <si>
+    <t>neethunew</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B889F398-F614-4537-9F12-00E692AE7DD1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>162</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>

--- a/Saran/target/classes/testdatalogin.xlsx
+++ b/Saran/target/classes/testdatalogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69500C09-A955-4EB9-8F58-0B5D4A8618E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEDA4D-D66D-4561-A155-D69A75A8B8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
@@ -544,7 +544,7 @@
     <t>test256</t>
   </si>
   <si>
-    <t>neethunew</t>
+    <t>neethu201</t>
   </si>
 </sst>
 </file>

--- a/Saran/target/classes/testdatalogin.xlsx
+++ b/Saran/target/classes/testdatalogin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DEDA4D-D66D-4561-A155-D69A75A8B8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976998BC-DBF5-4F1A-B2F6-B18BA7F1CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
@@ -544,7 +544,7 @@
     <t>test256</t>
   </si>
   <si>
-    <t>neethu201</t>
+    <t>neethu202</t>
   </si>
 </sst>
 </file>

--- a/Saran/target/classes/testdatalogin.xlsx
+++ b/Saran/target/classes/testdatalogin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neethu\git\Saran\Saran\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976998BC-DBF5-4F1A-B2F6-B18BA7F1CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB37B2B-832D-4CF0-AA64-1CBAB44AE919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{A5AB21CB-C963-41A1-8CA1-4E0096A38FDD}"/>
   </bookViews>
   <sheets>
     <sheet name="loginpage" sheetId="1" r:id="rId1"/>
@@ -1101,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AC4E1D-DEF7-40CA-B4FC-DEED434DA9FE}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1816,7 +1816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B889F398-F614-4537-9F12-00E692AE7DD1}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
